--- a/results/consolidated_test_report_0812241131.xlsx
+++ b/results/consolidated_test_report_0812241131.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C633DB00-0F98-8B4B-A853-9C9804C7E825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB90216-2411-B548-94B7-B8A43517B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7800" windowWidth="33060" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-7800" windowWidth="33060" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -457,12 +457,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -493,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -503,12 +509,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1372,7 +1427,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="222" workbookViewId="0">
+    <sheetView zoomScale="222" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2256,11 +2311,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="55" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="61" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O13">
-    <cfRule type="top10" dxfId="53" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="59" priority="26" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2271,7 +2326,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="52" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P13">
     <cfRule type="colorScale" priority="16">
@@ -2284,12 +2339,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="51" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="50" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="57" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q13">
-    <cfRule type="top10" dxfId="49" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="48" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2312,12 +2367,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="47" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S13">
-    <cfRule type="top10" dxfId="45" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="44" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="50" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2330,8 +2385,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T13">
-    <cfRule type="top10" dxfId="43" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="42" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="48" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4822,11 +4877,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="41" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P37">
-    <cfRule type="top10" dxfId="39" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="45" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4837,7 +4892,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="38" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q37">
     <cfRule type="colorScale" priority="16">
@@ -4850,12 +4905,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="37" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="36" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="43" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="top10" dxfId="35" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="34" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4878,12 +4933,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="33" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T37">
-    <cfRule type="top10" dxfId="31" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="30" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="36" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4896,8 +4951,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U37">
-    <cfRule type="top10" dxfId="29" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="28" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6608,11 +6663,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="27" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P25">
-    <cfRule type="top10" dxfId="25" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="31" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6623,7 +6678,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="24" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q25">
     <cfRule type="colorScale" priority="16">
@@ -6636,12 +6691,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="23" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="22" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="29" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R25">
-    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="20" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6664,12 +6719,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T25">
-    <cfRule type="top10" dxfId="17" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="16" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6682,8 +6737,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U25">
-    <cfRule type="top10" dxfId="15" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="14" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="20" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6704,13 +6759,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="F79" sqref="A75:F79"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E87" sqref="A87:E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="4" width="12.1640625" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" customWidth="1"/>
@@ -6784,7 +6839,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -6849,7 +6904,7 @@
         <v>0.70048913698630144</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -6914,7 +6969,7 @@
         <v>0.70139768493150689</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -6979,7 +7034,7 @@
         <v>0.71075472602739731</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7239,7 +7294,7 @@
         <v>0.70318121428571434</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7304,7 +7359,7 @@
         <v>0.69957415068493156</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -7369,7 +7424,7 @@
         <v>0.69773210958904119</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -7564,7 +7619,7 @@
         <v>0.69785905357142852</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -7889,7 +7944,7 @@
         <v>0.70904988000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -9839,7 +9894,7 @@
         <v>0.68169208823529415</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -9969,7 +10024,7 @@
         <v>0.59870229268292685</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -10424,7 +10479,7 @@
         <v>0.64793123214285708</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -10749,8 +10804,8 @@
         <v>0.64513387499999997</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B63" t="s">
@@ -10814,8 +10869,8 @@
         <v>0.69084199999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B64" t="s">
@@ -10879,8 +10934,8 @@
         <v>0.64257158490566035</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B65" t="s">
@@ -10944,8 +10999,8 @@
         <v>0.57615324390243905</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B66" t="s">
@@ -11009,8 +11064,8 @@
         <v>0.67193250000000004</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B67" t="s">
@@ -11074,8 +11129,8 @@
         <v>0.63465556603773576</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B68" t="s">
@@ -11139,18 +11194,18 @@
         <v>0.58001226829268293</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>22</v>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D69">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
@@ -11159,16 +11214,16 @@
         <v>6</v>
       </c>
       <c r="G69" s="2">
-        <v>6704.833333333333</v>
+        <v>10846.16666666667</v>
       </c>
       <c r="H69" s="2">
-        <v>1077.512583066512</v>
+        <v>2260.917815106659</v>
       </c>
       <c r="I69" s="2">
-        <v>675</v>
+        <v>624.83333333333337</v>
       </c>
       <c r="J69" s="2">
-        <v>605.55660346494449</v>
+        <v>405.72424954230507</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -11192,113 +11247,113 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R69" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0.66122500000000006</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0.76292949999999993</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0.70823999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70">
+        <v>500</v>
+      </c>
+      <c r="D70">
+        <v>0.9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70">
+        <v>41</v>
+      </c>
+      <c r="G70" s="2">
+        <v>13630.07317073171</v>
+      </c>
+      <c r="H70" s="2">
+        <v>7260.9117002971598</v>
+      </c>
+      <c r="I70" s="2">
+        <v>373.2439024390244</v>
+      </c>
+      <c r="J70" s="2">
+        <v>332.45727398327477</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0.38536585365853659</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0.60170124390243895</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0.5695073170731707</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0.58236241463414629</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <v>500</v>
+      </c>
+      <c r="D71">
         <v>0.5</v>
       </c>
-      <c r="S69" s="3">
-        <v>0.69935466666666668</v>
-      </c>
-      <c r="T69" s="3">
-        <v>0.7605101666666666</v>
-      </c>
-      <c r="U69" s="3">
-        <v>0.72791216666666658</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>22</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70">
-        <v>250</v>
-      </c>
-      <c r="D70">
-        <v>0.7</v>
-      </c>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70">
-        <v>53</v>
-      </c>
-      <c r="G70" s="2">
-        <v>5664.3396226415098</v>
-      </c>
-      <c r="H70" s="2">
-        <v>1704.3491871295289</v>
-      </c>
-      <c r="I70" s="2">
-        <v>467.81132075471697</v>
-      </c>
-      <c r="J70" s="2">
-        <v>295.06238301311117</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0.47169811320754712</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0.169811320754717</v>
-      </c>
-      <c r="S70" s="3">
-        <v>0.63006373584905662</v>
-      </c>
-      <c r="T70" s="3">
-        <v>0.65890205660377366</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0.64281558490566038</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71">
-        <v>250</v>
-      </c>
-      <c r="D71">
-        <v>0.7</v>
-      </c>
       <c r="E71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F71">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G71" s="2">
-        <v>8140.6097560975613</v>
+        <v>9904.6666666666661</v>
       </c>
       <c r="H71" s="2">
-        <v>4307.0555770621813</v>
+        <v>1057.6040216766701</v>
       </c>
       <c r="I71" s="2">
-        <v>373.92682926829269</v>
+        <v>689.5</v>
       </c>
       <c r="J71" s="2">
-        <v>358.03633825660091</v>
+        <v>672.34418269216849</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -11319,51 +11374,51 @@
         <v>0</v>
       </c>
       <c r="Q71" s="3">
-        <v>0.37073170731707322</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="R71" s="3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S71" s="3">
-        <v>0.60253246341463418</v>
+        <v>0.64587416666666664</v>
       </c>
       <c r="T71" s="3">
-        <v>0.57304287804878051</v>
+        <v>0.73385883333333324</v>
       </c>
       <c r="U71" s="3">
-        <v>0.58542246341463411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>23</v>
+        <v>0.68626566666666655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C72">
         <v>500</v>
       </c>
       <c r="D72">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G72" s="2">
-        <v>7626.666666666667</v>
+        <v>14174.60975609756</v>
       </c>
       <c r="H72" s="2">
-        <v>727.61244262771288</v>
+        <v>7477.1203610683197</v>
       </c>
       <c r="I72" s="2">
-        <v>627.83333333333337</v>
+        <v>388.4390243902439</v>
       </c>
       <c r="J72" s="2">
-        <v>709.72879796910217</v>
+        <v>427.58192482730652</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -11384,51 +11439,51 @@
         <v>0</v>
       </c>
       <c r="Q72" s="3">
-        <v>0.4</v>
+        <v>0.34146341463414642</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="S72" s="3">
-        <v>0.60640083333333339</v>
+        <v>0.60408353658536595</v>
       </c>
       <c r="T72" s="3">
-        <v>0.66982316666666664</v>
+        <v>0.5705828048780488</v>
       </c>
       <c r="U72" s="3">
-        <v>0.63493766666666673</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>23</v>
+        <v>0.58443985365853657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73">
         <v>500</v>
       </c>
       <c r="D73">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F73">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G73" s="2">
-        <v>8208.433962264151</v>
+        <v>10341</v>
       </c>
       <c r="H73" s="2">
-        <v>1970.219028330001</v>
+        <v>946.64840357970286</v>
       </c>
       <c r="I73" s="2">
-        <v>470.8679245283019</v>
+        <v>964</v>
       </c>
       <c r="J73" s="2">
-        <v>358.46081417294789</v>
+        <v>1233.8892981138949</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
@@ -11449,33 +11504,33 @@
         <v>0</v>
       </c>
       <c r="Q73" s="3">
-        <v>0.4113207547169811</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R73" s="3">
-        <v>0.15094339622641509</v>
+        <v>0.5</v>
       </c>
       <c r="S73" s="3">
-        <v>0.63947409433962255</v>
+        <v>0.67416266666666669</v>
       </c>
       <c r="T73" s="3">
-        <v>0.65340515094339635</v>
+        <v>0.76539083333333335</v>
       </c>
       <c r="U73" s="3">
-        <v>0.64479945283018869</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>23</v>
+        <v>0.71532950000000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74">
         <v>500</v>
       </c>
       <c r="D74">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E74" t="s">
         <v>48</v>
@@ -11484,16 +11539,16 @@
         <v>41</v>
       </c>
       <c r="G74" s="2">
-        <v>8064.7560975609758</v>
+        <v>12409.219512195121</v>
       </c>
       <c r="H74" s="2">
-        <v>1271.669528228301</v>
+        <v>6520.5849067096542</v>
       </c>
       <c r="I74" s="2">
-        <v>452.41463414634148</v>
+        <v>428.58536585365852</v>
       </c>
       <c r="J74" s="2">
-        <v>510.51576741613752</v>
+        <v>471.82062140233751</v>
       </c>
       <c r="K74" s="3">
         <v>0</v>
@@ -11517,24 +11572,24 @@
         <v>0.37560975609756098</v>
       </c>
       <c r="R74" s="3">
-        <v>0</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="S74" s="3">
-        <v>0.59610487804878054</v>
+        <v>0.60733914634146335</v>
       </c>
       <c r="T74" s="3">
-        <v>0.58165617073170739</v>
+        <v>0.56683168292682928</v>
       </c>
       <c r="U74" s="3">
-        <v>0.58702353658536577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>23</v>
+        <v>0.58313056097560967</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C75">
         <v>500</v>
@@ -11543,22 +11598,22 @@
         <v>0.7</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F75">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="G75" s="2">
-        <v>8920.2560975609758</v>
+        <v>10630.33333333333</v>
       </c>
       <c r="H75" s="2">
-        <v>1702.141148424505</v>
+        <v>1576.482498052759</v>
       </c>
       <c r="I75" s="2">
-        <v>452.17073170731709</v>
+        <v>482.33333333333331</v>
       </c>
       <c r="J75" s="2">
-        <v>542.50873133732682</v>
+        <v>214.44408750689931</v>
       </c>
       <c r="K75" s="3">
         <v>0</v>
@@ -11579,51 +11634,51 @@
         <v>0</v>
       </c>
       <c r="Q75" s="3">
-        <v>0.38048780487804867</v>
+        <v>0.6</v>
       </c>
       <c r="R75" s="3">
-        <v>2.4390243902439029E-2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="S75" s="3">
-        <v>0.58544498780487808</v>
+        <v>0.67651050000000001</v>
       </c>
       <c r="T75" s="3">
-        <v>0.57959965853658535</v>
+        <v>0.78440016666666657</v>
       </c>
       <c r="U75" s="3">
-        <v>0.57865662195121947</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>24</v>
+        <v>0.72524733333333335</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B76" t="s">
         <v>34</v>
       </c>
       <c r="C76">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D76">
         <v>0.7</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G76" s="2">
-        <v>5238</v>
+        <v>13227.804878048781</v>
       </c>
       <c r="H76" s="2">
-        <v>805.42808493372024</v>
+        <v>7099.8246077614913</v>
       </c>
       <c r="I76" s="2">
-        <v>412</v>
+        <v>381.02439024390242</v>
       </c>
       <c r="J76" s="2">
-        <v>238.75091622860839</v>
+        <v>433.89396675944221</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -11644,33 +11699,33 @@
         <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>0.4</v>
+        <v>0.35121951219512199</v>
       </c>
       <c r="R76" s="3">
-        <v>0.16666666666666671</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="S76" s="3">
-        <v>0.62966383333333331</v>
+        <v>0.60270114634146355</v>
       </c>
       <c r="T76" s="3">
-        <v>0.71064916666666667</v>
+        <v>0.57039487804878053</v>
       </c>
       <c r="U76" s="3">
-        <v>0.66625999999999996</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>24</v>
+        <v>0.58380395121951223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B77" t="s">
         <v>34</v>
       </c>
       <c r="C77">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D77">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E77" t="s">
         <v>47</v>
@@ -11679,16 +11734,16 @@
         <v>53</v>
       </c>
       <c r="G77" s="2">
-        <v>5126.7547169811323</v>
+        <v>8474.8301886792451</v>
       </c>
       <c r="H77" s="2">
-        <v>1268.646036371975</v>
+        <v>2366.659734210361</v>
       </c>
       <c r="I77" s="2">
-        <v>435.79245283018872</v>
+        <v>584.15094339622647</v>
       </c>
       <c r="J77" s="2">
-        <v>273.52150516567917</v>
+        <v>647.02063919721274</v>
       </c>
       <c r="K77" s="3">
         <v>0</v>
@@ -11709,51 +11764,51 @@
         <v>0</v>
       </c>
       <c r="Q77" s="3">
-        <v>0.46415094339622642</v>
+        <v>0.45660377358490561</v>
       </c>
       <c r="R77" s="3">
-        <v>9.4339622641509441E-2</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="S77" s="3">
-        <v>0.61960998113207544</v>
+        <v>0.63829564150943396</v>
       </c>
       <c r="T77" s="3">
-        <v>0.64119641509433956</v>
+        <v>0.65676126415094338</v>
       </c>
       <c r="U77" s="3">
-        <v>0.62848369811320759</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>24</v>
+        <v>0.64622049056603781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B78" t="s">
         <v>34</v>
       </c>
       <c r="C78">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D78">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F78">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G78" s="2">
-        <v>5125.7560975609758</v>
+        <v>8744.3962264150941</v>
       </c>
       <c r="H78" s="2">
-        <v>864.37268526046705</v>
+        <v>2045.164675893838</v>
       </c>
       <c r="I78" s="2">
-        <v>388.4390243902439</v>
+        <v>613.84905660377353</v>
       </c>
       <c r="J78" s="2">
-        <v>389.16943924083301</v>
+        <v>540.01201540145291</v>
       </c>
       <c r="K78" s="3">
         <v>0</v>
@@ -11774,51 +11829,51 @@
         <v>0</v>
       </c>
       <c r="Q78" s="3">
-        <v>0.37073170731707322</v>
+        <v>0.50188679245283019</v>
       </c>
       <c r="R78" s="3">
-        <v>2.4390243902439029E-2</v>
+        <v>0.20754716981132079</v>
       </c>
       <c r="S78" s="3">
-        <v>0.60036970731707318</v>
+        <v>0.64540130188679257</v>
       </c>
       <c r="T78" s="3">
-        <v>0.57795226829268287</v>
+        <v>0.66323326415094341</v>
       </c>
       <c r="U78" s="3">
-        <v>0.5862699512195122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>24</v>
+        <v>0.65247181132075471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B79" t="s">
         <v>34</v>
       </c>
       <c r="C79">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="D79">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="E79" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F79">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G79" s="2">
-        <v>6361.0853658536589</v>
+        <v>8796.0188679245275</v>
       </c>
       <c r="H79" s="2">
-        <v>1584.0307095883591</v>
+        <v>2259.5354227274761</v>
       </c>
       <c r="I79" s="2">
-        <v>437.32926829268291</v>
+        <v>492.47169811320748</v>
       </c>
       <c r="J79" s="2">
-        <v>410.94324064769069</v>
+        <v>378.49101217728281</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
@@ -11839,24 +11894,24 @@
         <v>0</v>
       </c>
       <c r="Q79" s="3">
-        <v>0.34634146341463412</v>
+        <v>0.45283018867924513</v>
       </c>
       <c r="R79" s="3">
-        <v>0</v>
+        <v>0.13207547169811321</v>
       </c>
       <c r="S79" s="3">
-        <v>0.59428334146341466</v>
+        <v>0.63454801886792445</v>
       </c>
       <c r="T79" s="3">
-        <v>0.59324145121951222</v>
+        <v>0.65133337735849062</v>
       </c>
       <c r="U79" s="3">
-        <v>0.59016410975609768</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>28</v>
+        <v>0.64140401886792442</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B80" t="s">
         <v>34</v>
@@ -11865,220 +11920,220 @@
         <v>500</v>
       </c>
       <c r="D80">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E80" t="s">
+        <v>47</v>
+      </c>
+      <c r="F80">
+        <v>53</v>
+      </c>
+      <c r="G80" s="2">
+        <v>8157.3773584905657</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1978.423306054354</v>
+      </c>
+      <c r="I80" s="2">
+        <v>523.15094339622647</v>
+      </c>
+      <c r="J80" s="2">
+        <v>458.71976514184041</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>0</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0.15094339622641509</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0.63422107547169804</v>
+      </c>
+      <c r="T80" s="3">
+        <v>0.65106384905660375</v>
+      </c>
+      <c r="U80" s="3">
+        <v>0.6410477735849055</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>22</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81">
+        <v>250</v>
+      </c>
+      <c r="D81">
+        <v>0.7</v>
+      </c>
+      <c r="E81" t="s">
         <v>46</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <v>6</v>
       </c>
-      <c r="G80" s="2">
-        <v>10846.16666666667</v>
-      </c>
-      <c r="H80" s="2">
-        <v>2260.917815106659</v>
-      </c>
-      <c r="I80" s="2">
-        <v>624.83333333333337</v>
-      </c>
-      <c r="J80" s="2">
-        <v>405.72424954230507</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0</v>
-      </c>
-      <c r="L80" s="3">
-        <v>0</v>
-      </c>
-      <c r="M80" s="3">
-        <v>0</v>
-      </c>
-      <c r="N80" s="3">
-        <v>0</v>
-      </c>
-      <c r="O80" s="3">
-        <v>0</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
+      <c r="G81" s="2">
+        <v>6704.833333333333</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1077.512583066512</v>
+      </c>
+      <c r="I81" s="2">
+        <v>675</v>
+      </c>
+      <c r="J81" s="2">
+        <v>605.55660346494449</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R80" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="S80" s="3">
-        <v>0.66122500000000006</v>
-      </c>
-      <c r="T80" s="3">
-        <v>0.76292949999999993</v>
-      </c>
-      <c r="U80" s="3">
-        <v>0.70823999999999998</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>28</v>
-      </c>
-      <c r="B81" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81">
-        <v>500</v>
-      </c>
-      <c r="D81">
-        <v>0.9</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="R81" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0.69935466666666668</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0.7605101666666666</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0.72791216666666658</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82">
+        <v>250</v>
+      </c>
+      <c r="D82">
+        <v>0.7</v>
+      </c>
+      <c r="E82" t="s">
         <v>47</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <v>53</v>
       </c>
-      <c r="G81" s="2">
-        <v>8474.8301886792451</v>
-      </c>
-      <c r="H81" s="2">
-        <v>2366.659734210361</v>
-      </c>
-      <c r="I81" s="2">
-        <v>584.15094339622647</v>
-      </c>
-      <c r="J81" s="2">
-        <v>647.02063919721274</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0.45660377358490561</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0.1132075471698113</v>
-      </c>
-      <c r="S81" s="3">
-        <v>0.63829564150943396</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0.65676126415094338</v>
-      </c>
-      <c r="U81" s="3">
-        <v>0.64622049056603781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>28</v>
-      </c>
-      <c r="B82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C82">
-        <v>500</v>
-      </c>
-      <c r="D82">
-        <v>0.9</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="G82" s="2">
+        <v>5664.3396226415098</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1704.3491871295289</v>
+      </c>
+      <c r="I82" s="2">
+        <v>467.81132075471697</v>
+      </c>
+      <c r="J82" s="2">
+        <v>295.06238301311117</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0.47169811320754712</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0.169811320754717</v>
+      </c>
+      <c r="S82" s="3">
+        <v>0.63006373584905662</v>
+      </c>
+      <c r="T82" s="3">
+        <v>0.65890205660377366</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0.64281558490566038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83">
+        <v>250</v>
+      </c>
+      <c r="D83">
+        <v>0.7</v>
+      </c>
+      <c r="E83" t="s">
         <v>48</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>41</v>
       </c>
-      <c r="G82" s="2">
-        <v>13630.07317073171</v>
-      </c>
-      <c r="H82" s="2">
-        <v>7260.9117002971598</v>
-      </c>
-      <c r="I82" s="2">
-        <v>373.2439024390244</v>
-      </c>
-      <c r="J82" s="2">
-        <v>332.45727398327477</v>
-      </c>
-      <c r="K82" s="3">
-        <v>0</v>
-      </c>
-      <c r="L82" s="3">
-        <v>0</v>
-      </c>
-      <c r="M82" s="3">
-        <v>0</v>
-      </c>
-      <c r="N82" s="3">
-        <v>0</v>
-      </c>
-      <c r="O82" s="3">
-        <v>0</v>
-      </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0.38536585365853659</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0</v>
-      </c>
-      <c r="S82" s="3">
-        <v>0.60170124390243895</v>
-      </c>
-      <c r="T82" s="3">
-        <v>0.5695073170731707</v>
-      </c>
-      <c r="U82" s="3">
-        <v>0.58236241463414629</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B83" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83">
-        <v>500</v>
-      </c>
-      <c r="D83">
-        <v>0.5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83">
-        <v>6</v>
-      </c>
       <c r="G83" s="2">
-        <v>9904.6666666666661</v>
+        <v>8140.6097560975613</v>
       </c>
       <c r="H83" s="2">
-        <v>1057.6040216766701</v>
+        <v>4307.0555770621813</v>
       </c>
       <c r="I83" s="2">
-        <v>689.5</v>
+        <v>373.92682926829269</v>
       </c>
       <c r="J83" s="2">
-        <v>672.34418269216849</v>
+        <v>358.03633825660091</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -12099,51 +12154,51 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>0.70000000000000007</v>
+        <v>0.37073170731707322</v>
       </c>
       <c r="R83" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0.64587416666666664</v>
+        <v>0.60253246341463418</v>
       </c>
       <c r="T83" s="3">
-        <v>0.73385883333333324</v>
+        <v>0.57304287804878051</v>
       </c>
       <c r="U83" s="3">
-        <v>0.68626566666666655</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.58542246341463411</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C84">
         <v>500</v>
       </c>
       <c r="D84">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F84">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="G84" s="2">
-        <v>8744.3962264150941</v>
+        <v>7626.666666666667</v>
       </c>
       <c r="H84" s="2">
-        <v>2045.164675893838</v>
+        <v>727.61244262771288</v>
       </c>
       <c r="I84" s="2">
-        <v>613.84905660377353</v>
+        <v>627.83333333333337</v>
       </c>
       <c r="J84" s="2">
-        <v>540.01201540145291</v>
+        <v>709.72879796910217</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -12164,51 +12219,51 @@
         <v>0</v>
       </c>
       <c r="Q84" s="3">
-        <v>0.50188679245283019</v>
+        <v>0.4</v>
       </c>
       <c r="R84" s="3">
-        <v>0.20754716981132079</v>
+        <v>0</v>
       </c>
       <c r="S84" s="3">
-        <v>0.64540130188679257</v>
+        <v>0.60640083333333339</v>
       </c>
       <c r="T84" s="3">
-        <v>0.66323326415094341</v>
+        <v>0.66982316666666664</v>
       </c>
       <c r="U84" s="3">
-        <v>0.65247181132075471</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.63493766666666673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C85">
         <v>500</v>
       </c>
       <c r="D85">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G85" s="2">
-        <v>14174.60975609756</v>
+        <v>8208.433962264151</v>
       </c>
       <c r="H85" s="2">
-        <v>7477.1203610683197</v>
+        <v>1970.219028330001</v>
       </c>
       <c r="I85" s="2">
-        <v>388.4390243902439</v>
+        <v>470.8679245283019</v>
       </c>
       <c r="J85" s="2">
-        <v>427.58192482730652</v>
+        <v>358.46081417294789</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -12229,51 +12284,51 @@
         <v>0</v>
       </c>
       <c r="Q85" s="3">
-        <v>0.34146341463414642</v>
+        <v>0.4113207547169811</v>
       </c>
       <c r="R85" s="3">
-        <v>2.4390243902439029E-2</v>
+        <v>0.15094339622641509</v>
       </c>
       <c r="S85" s="3">
-        <v>0.60408353658536595</v>
+        <v>0.63947409433962255</v>
       </c>
       <c r="T85" s="3">
-        <v>0.5705828048780488</v>
+        <v>0.65340515094339635</v>
       </c>
       <c r="U85" s="3">
-        <v>0.58443985365853657</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.64479945283018869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C86">
         <v>500</v>
       </c>
       <c r="D86">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G86" s="2">
-        <v>10341</v>
+        <v>8064.7560975609758</v>
       </c>
       <c r="H86" s="2">
-        <v>946.64840357970286</v>
+        <v>1271.669528228301</v>
       </c>
       <c r="I86" s="2">
-        <v>964</v>
+        <v>452.41463414634148</v>
       </c>
       <c r="J86" s="2">
-        <v>1233.8892981138949</v>
+        <v>510.51576741613752</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -12294,51 +12349,51 @@
         <v>0</v>
       </c>
       <c r="Q86" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.37560975609756098</v>
       </c>
       <c r="R86" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S86" s="3">
-        <v>0.67416266666666669</v>
+        <v>0.59610487804878054</v>
       </c>
       <c r="T86" s="3">
-        <v>0.76539083333333335</v>
+        <v>0.58165617073170739</v>
       </c>
       <c r="U86" s="3">
-        <v>0.71532950000000006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.58702353658536577</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C87">
         <v>500</v>
       </c>
       <c r="D87">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F87">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G87" s="2">
-        <v>8796.0188679245275</v>
+        <v>8920.2560975609758</v>
       </c>
       <c r="H87" s="2">
-        <v>2259.5354227274761</v>
+        <v>1702.141148424505</v>
       </c>
       <c r="I87" s="2">
-        <v>492.47169811320748</v>
+        <v>452.17073170731709</v>
       </c>
       <c r="J87" s="2">
-        <v>378.49101217728281</v>
+        <v>542.50873133732682</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -12359,51 +12414,51 @@
         <v>0</v>
       </c>
       <c r="Q87" s="3">
-        <v>0.45283018867924513</v>
+        <v>0.38048780487804867</v>
       </c>
       <c r="R87" s="3">
-        <v>0.13207547169811321</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="S87" s="3">
-        <v>0.63454801886792445</v>
+        <v>0.58544498780487808</v>
       </c>
       <c r="T87" s="3">
-        <v>0.65133337735849062</v>
+        <v>0.57959965853658535</v>
       </c>
       <c r="U87" s="3">
-        <v>0.64140401886792442</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.57865662195121947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
         <v>34</v>
       </c>
       <c r="C88">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D88">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F88">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="G88" s="2">
-        <v>12409.219512195121</v>
+        <v>5238</v>
       </c>
       <c r="H88" s="2">
-        <v>6520.5849067096542</v>
+        <v>805.42808493372024</v>
       </c>
       <c r="I88" s="2">
-        <v>428.58536585365852</v>
+        <v>412</v>
       </c>
       <c r="J88" s="2">
-        <v>471.82062140233751</v>
+        <v>238.75091622860839</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -12424,51 +12479,51 @@
         <v>0</v>
       </c>
       <c r="Q88" s="3">
-        <v>0.37560975609756098</v>
+        <v>0.4</v>
       </c>
       <c r="R88" s="3">
-        <v>4.878048780487805E-2</v>
+        <v>0.16666666666666671</v>
       </c>
       <c r="S88" s="3">
-        <v>0.60733914634146335</v>
+        <v>0.62966383333333331</v>
       </c>
       <c r="T88" s="3">
-        <v>0.56683168292682928</v>
+        <v>0.71064916666666667</v>
       </c>
       <c r="U88" s="3">
-        <v>0.58313056097560967</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.66625999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
         <v>34</v>
       </c>
       <c r="C89">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D89">
         <v>0.7</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="G89" s="2">
-        <v>10630.33333333333</v>
+        <v>5126.7547169811323</v>
       </c>
       <c r="H89" s="2">
-        <v>1576.482498052759</v>
+        <v>1268.646036371975</v>
       </c>
       <c r="I89" s="2">
-        <v>482.33333333333331</v>
+        <v>435.79245283018872</v>
       </c>
       <c r="J89" s="2">
-        <v>214.44408750689931</v>
+        <v>273.52150516567917</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -12489,51 +12544,51 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>0.6</v>
+        <v>0.46415094339622642</v>
       </c>
       <c r="R89" s="3">
-        <v>0.33333333333333331</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="S89" s="3">
-        <v>0.67651050000000001</v>
+        <v>0.61960998113207544</v>
       </c>
       <c r="T89" s="3">
-        <v>0.78440016666666657</v>
+        <v>0.64119641509433956</v>
       </c>
       <c r="U89" s="3">
-        <v>0.72524733333333335</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.62848369811320759</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
         <v>34</v>
       </c>
       <c r="C90">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D90">
         <v>0.7</v>
       </c>
       <c r="E90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F90">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G90" s="2">
-        <v>8157.3773584905657</v>
+        <v>5125.7560975609758</v>
       </c>
       <c r="H90" s="2">
-        <v>1978.423306054354</v>
+        <v>864.37268526046705</v>
       </c>
       <c r="I90" s="2">
-        <v>523.15094339622647</v>
+        <v>388.4390243902439</v>
       </c>
       <c r="J90" s="2">
-        <v>458.71976514184041</v>
+        <v>389.16943924083301</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
@@ -12554,51 +12609,51 @@
         <v>0</v>
       </c>
       <c r="Q90" s="3">
-        <v>0.45283018867924529</v>
+        <v>0.37073170731707322</v>
       </c>
       <c r="R90" s="3">
-        <v>0.15094339622641509</v>
+        <v>2.4390243902439029E-2</v>
       </c>
       <c r="S90" s="3">
-        <v>0.63422107547169804</v>
+        <v>0.60036970731707318</v>
       </c>
       <c r="T90" s="3">
-        <v>0.65106384905660375</v>
+        <v>0.57795226829268287</v>
       </c>
       <c r="U90" s="3">
-        <v>0.6410477735849055</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.5862699512195122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
         <v>34</v>
       </c>
       <c r="C91">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="D91">
         <v>0.7</v>
       </c>
       <c r="E91" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F91">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G91" s="2">
-        <v>13227.804878048781</v>
+        <v>6361.0853658536589</v>
       </c>
       <c r="H91" s="2">
-        <v>7099.8246077614913</v>
+        <v>1584.0307095883591</v>
       </c>
       <c r="I91" s="2">
-        <v>381.02439024390242</v>
+        <v>437.32926829268291</v>
       </c>
       <c r="J91" s="2">
-        <v>433.89396675944221</v>
+        <v>410.94324064769069</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -12619,22 +12674,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>0.35121951219512199</v>
+        <v>0.34634146341463412</v>
       </c>
       <c r="R91" s="3">
-        <v>2.4390243902439029E-2</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>0.60270114634146355</v>
+        <v>0.59428334146341466</v>
       </c>
       <c r="T91" s="3">
-        <v>0.57039487804878053</v>
+        <v>0.59324145121951222</v>
       </c>
       <c r="U91" s="3">
-        <v>0.58380395121951223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+        <v>0.59016410975609768</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>30</v>
       </c>
@@ -12699,7 +12754,7 @@
         <v>0.65710816666666672</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>30</v>
       </c>
@@ -12764,7 +12819,7 @@
         <v>0.63308113207547168</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>30</v>
       </c>
@@ -12829,7 +12884,7 @@
         <v>0.58378470731707321</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>31</v>
       </c>
@@ -12894,7 +12949,7 @@
         <v>0.68777683333333339</v>
       </c>
     </row>
-    <row r="96" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -12959,7 +13014,7 @@
         <v>0.62879466037735843</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -13026,11 +13081,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:U97" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="4">
+    <filterColumn colId="15">
       <filters>
-        <filter val="Technische FAQ BEG EM"/>
+        <filter val="0%"/>
       </filters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:U97">
+      <sortCondition sortBy="cellColor" ref="A1:A97" dxfId="1"/>
+    </sortState>
   </autoFilter>
   <conditionalFormatting sqref="K2:K97">
     <cfRule type="colorScale" priority="23">
@@ -13091,11 +13149,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P97">
-    <cfRule type="top10" dxfId="11" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="17" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13106,7 +13164,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="10" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q97">
     <cfRule type="colorScale" priority="16">
@@ -13119,12 +13177,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="9" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="8" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="15" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R97">
-    <cfRule type="top10" dxfId="7" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="6" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13147,12 +13205,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="5" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="4" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T97">
-    <cfRule type="top10" dxfId="3" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="2" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13165,8 +13223,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U97">
-    <cfRule type="top10" dxfId="1" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="6" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>

--- a/results/consolidated_test_report_0812241131.xlsx
+++ b/results/consolidated_test_report_0812241131.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodolfocacacho/Documents/Documents/MAI/Master Thesis/Code/rag_project/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB90216-2411-B548-94B7-B8A43517B91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5C255E-1A4D-AA43-81F9-249558F4A1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-7800" windowWidth="33060" windowHeight="28800" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="-7800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -515,55 +515,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1124,6 +1076,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1424,11 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView zoomScale="222" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="222" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1454,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1557,7 +1516,7 @@
         <v>0.64704045822784817</v>
       </c>
     </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1578,7 @@
         <v>0.65927636202531636</v>
       </c>
     </row>
-    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1681,7 +1640,7 @@
         <v>0.66493273670886066</v>
       </c>
     </row>
-    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1743,7 +1702,7 @@
         <v>0.64775577721518984</v>
       </c>
     </row>
-    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -2053,7 +2012,7 @@
         <v>0.66555539240506334</v>
       </c>
     </row>
-    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2115,7 +2074,7 @@
         <v>0.67556923797468338</v>
       </c>
     </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2177,7 +2136,7 @@
         <v>0.63314706075949367</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2240,18 +2199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T13" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="jinaai/jina-embeddings-v3"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="500"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:T13" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J2:J13">
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -2311,11 +2259,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="61" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="60" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="55" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O13">
-    <cfRule type="top10" dxfId="59" priority="26" rank="2"/>
+    <cfRule type="top10" dxfId="53" priority="26" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -2326,7 +2274,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="58" priority="25" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="25" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P13">
     <cfRule type="colorScale" priority="16">
@@ -2339,12 +2287,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="57" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="56" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="51" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q13">
-    <cfRule type="top10" dxfId="55" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="54" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="49" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -2367,12 +2315,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="53" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="52" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="47" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2:S13">
-    <cfRule type="top10" dxfId="51" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="50" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="44" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -2385,8 +2333,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T13">
-    <cfRule type="top10" dxfId="49" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="48" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="42" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -4877,11 +4825,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="47" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="46" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="41" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P37">
-    <cfRule type="top10" dxfId="45" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="39" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -4892,7 +4840,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="44" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q37">
     <cfRule type="colorScale" priority="16">
@@ -4905,12 +4853,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="43" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="42" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="37" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R37">
-    <cfRule type="top10" dxfId="41" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="40" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="35" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -4933,12 +4881,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="39" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="38" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="33" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T37">
-    <cfRule type="top10" dxfId="37" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="36" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="30" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -4951,8 +4899,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U37">
-    <cfRule type="top10" dxfId="35" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="28" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6663,11 +6611,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="33" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="32" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="27" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P25">
-    <cfRule type="top10" dxfId="31" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="25" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6678,7 +6626,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="30" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q25">
     <cfRule type="colorScale" priority="16">
@@ -6691,12 +6639,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="29" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="28" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="23" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R25">
-    <cfRule type="top10" dxfId="27" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="26" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="21" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6719,12 +6667,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="25" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="24" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="19" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T25">
-    <cfRule type="top10" dxfId="23" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="22" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="16" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6737,8 +6685,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U25">
-    <cfRule type="top10" dxfId="21" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="20" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="14" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6759,7 +6707,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView zoomScale="160" workbookViewId="0">
       <selection activeCell="E87" sqref="A87:E87"/>
     </sheetView>
   </sheetViews>
@@ -13087,7 +13035,7 @@
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A63:U97">
-      <sortCondition sortBy="cellColor" ref="A1:A97" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A97" dxfId="56"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="K2:K97">
@@ -13149,11 +13097,11 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="19" priority="2" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="18" priority="3" rank="2"/>
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="3" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P97">
-    <cfRule type="top10" dxfId="17" priority="25" rank="2"/>
+    <cfRule type="top10" dxfId="11" priority="25" rank="2"/>
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -13164,7 +13112,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="16" priority="24" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="24" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q97">
     <cfRule type="colorScale" priority="16">
@@ -13177,12 +13125,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="15" priority="17" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="14" priority="18" rank="2"/>
+    <cfRule type="top10" dxfId="9" priority="17" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="18" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R97">
-    <cfRule type="top10" dxfId="13" priority="14" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="12" priority="15" rank="2"/>
+    <cfRule type="top10" dxfId="7" priority="14" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="15" rank="2"/>
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -13205,12 +13153,12 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="top10" dxfId="11" priority="11" bottom="1" rank="1"/>
-    <cfRule type="top10" dxfId="10" priority="12" rank="2"/>
+    <cfRule type="top10" dxfId="5" priority="11" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="12" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:T97">
-    <cfRule type="top10" dxfId="9" priority="9" rank="2"/>
-    <cfRule type="top10" dxfId="8" priority="8" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="2" priority="8" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -13223,8 +13171,8 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U2:U97">
-    <cfRule type="top10" dxfId="7" priority="6" rank="2"/>
-    <cfRule type="top10" dxfId="6" priority="5" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="6" rank="2"/>
+    <cfRule type="top10" dxfId="0" priority="5" bottom="1" rank="1"/>
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
